--- a/data/case.xlsx
+++ b/data/case.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\code\Python\Python-test-platform\Python-Interface-Test\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="0" windowWidth="20820" windowHeight="11760"/>
+    <workbookView xWindow="-75" yWindow="0" windowWidth="20820" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>用例ID</t>
   </si>
@@ -96,13 +101,25 @@
   </si>
   <si>
     <t>GET</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>www.baidu.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -162,7 +179,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -172,17 +189,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -475,22 +498,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="35.33203125" customWidth="1"/>
-    <col min="4" max="4" width="24.1640625" customWidth="1"/>
-    <col min="5" max="5" width="37.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="3" max="3" width="35.375" customWidth="1"/>
+    <col min="4" max="4" width="24.125" customWidth="1"/>
+    <col min="5" max="5" width="37.125" customWidth="1"/>
     <col min="7" max="7" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -513,7 +536,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -536,7 +559,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -559,7 +582,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -577,6 +600,27 @@
       </c>
       <c r="F4" t="s">
         <v>20</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -584,6 +628,7 @@
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1"/>
     <hyperlink ref="E4" r:id="rId2"/>
+    <hyperlink ref="E5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -603,7 +648,7 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -622,7 +667,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
